--- a/enviados.xlsx
+++ b/enviados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,8 @@
           <t>Gabi2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>558581637405</t>
-        </is>
+      <c r="B2" t="n">
+        <v>558581637405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -473,14 +471,97 @@
           <t>Gabi</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>558898362446</t>
-        </is>
+      <c r="B3" t="n">
+        <v>558898362446</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>2025-11-12T21:40:10.878028</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nayara</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>558592268967</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-11-12T22:34:46.018248</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>558594329894</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-11-12T22:36:39.150023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Xulio</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>558599229911</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-11-12T22:38:35.665004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Italo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>558589731506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-11-12T22:40:40.389154</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tiago</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>558597963325</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-11-12T22:43:11.459850</t>
         </is>
       </c>
     </row>
